--- a/redis_note.xlsx
+++ b/redis_note.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Redis 使用SDS存储字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPUSH, LPUSH, LLEN, LRANGE,LPOP, and RPOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SADD adds the given value to the set.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有序的set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mapping 相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hashes  Map&amp;对象集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插入一个元素，在指定的值前/后 插入，  如果有多个相同的元素，以第一个元素作为标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,6 +452,26 @@
   </si>
   <si>
     <t>expedia官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashes  Map&amp;对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合操作set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合有序的set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表操作list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis提供五种数据类型：string，hash，list，set及zset(sorted set)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1814,6 +1818,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>1</v>
@@ -1867,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1918,179 +1927,179 @@
     </row>
     <row r="30" spans="1:5" ht="17.5">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
         <v>30</v>
-      </c>
-      <c r="I37" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="H38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O42" t="s">
         <v>80</v>
       </c>
-      <c r="O42" t="s">
-        <v>84</v>
-      </c>
       <c r="Q42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="S45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="S49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="S53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="J58" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="M61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="H64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="H66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="M67" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="H68" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" t="s">
         <v>92</v>
-      </c>
-      <c r="N68" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="H70" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.5">
       <c r="A77" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
         <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17.5">
       <c r="A88" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17.5">
@@ -2098,7 +2107,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -2106,110 +2115,110 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" t="s">
+        <v>53</v>
+      </c>
+      <c r="I94" t="s">
         <v>54</v>
-      </c>
-      <c r="D94" t="s">
-        <v>55</v>
-      </c>
-      <c r="F94" t="s">
-        <v>56</v>
-      </c>
-      <c r="I94" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="17.5">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J101" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="D103" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="D105" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="D109" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="D110" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="K111" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="D112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="5:18">
       <c r="K113" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P113" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="5:18">
       <c r="E121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="5:18">
       <c r="L122" t="s">
+        <v>71</v>
+      </c>
+      <c r="R122" t="s">
         <v>74</v>
-      </c>
-      <c r="R122" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="123" spans="5:18">
       <c r="L123" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R123" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2232,27 +2241,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2274,17 +2283,17 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2306,90 +2315,90 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
         <v>109</v>
       </c>
-      <c r="G15" t="s">
-        <v>113</v>
-      </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="D18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="4:7" s="4" customFormat="1"/>

--- a/redis_note.xlsx
+++ b/redis_note.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>Redis 使用SDS存储字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有过期时间 放回-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPUSH, LPUSH, LLEN, LRANGE,LPOP, and RPOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,268 +206,285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获得集合的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引0开始，包含结束的索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrange hackers 0 0   -&gt;取第一个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> sorted set is similar to a regular set, but now each value has an associated score. This score is used to sort the elements in the set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍然是个set，不能有重复的内容，如果重复则更新索引，但是索引相同则并列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSET user name "John Smith"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用户的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HMSET user name "Mary Jones" password "hidden" email "mjones@example.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时保存多个属性，多了个M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得单个属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hget user name</t>
+  </si>
+  <si>
+    <t>获得所有的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgetall user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回是属性，值  一系列的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkeys user</t>
+  </si>
+  <si>
+    <t>获得所有的key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hvals user</t>
+  </si>
+  <si>
+    <t>获得所有的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数值类型的属性的增删操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子操作，同步的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回增加后的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删掉属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdel user visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一个元素，在指定的值前/后 插入，  如果有多个相同的元素，以第一个元素作为标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单个元素： lset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入： linsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置某个索引对应的值，返回OK，索引不对返回Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，索引接受负值，-1表示倒数第一个，-2表示倒数第二个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除元素： lrem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从key对应list中删除count个和value相同的元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count&gt;0时，按从头到尾的顺序删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count&lt;0时，按从尾到头的顺序删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltrim保留指定key 的值范围内的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受负值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来防止list没有限制的增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果索引超出最大长度，默认为最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为状态码：OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpoplpush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定索引位置的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInventoryChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailStatusChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDailyRateChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.one房型房态 开，方量大于0---》DS存储房型的方量大于0---》dswitch接口返回 该房型方量变化 方量大于0</t>
+  </si>
+  <si>
+    <t>4.one房型房态 关，方量大于0----》ds存储 房型下所有价格计划状态 关， 方量 等于 0----》dswitch接口返回 房型下所有价格 关，方量=0</t>
+  </si>
+  <si>
+    <t>5.one房型房态 关，方量0----》ds存储 房型下所有价格状态 关，方量0---》dswitch接口返回 该房型所有价格关，方量0</t>
+  </si>
+  <si>
+    <t>2.one房型房态 开， 方量0 ----&gt;Dstorage 存储  房型下所有rateplan方量0----》dswitch接口返回所有的ratePlan对应 方量变化为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dswitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房型房态 开;方量0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_rate1 方量0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_rate2 方量0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_rate3 方量0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDailyRateChange=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailStatusChange=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInventoryChange=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方量0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expedia官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashes  Map&amp;对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合操作set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合有序的set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表操作list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis提供五种数据类型：string，hash，list，set及zset(sorted set)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有设置过期时间 放回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count=0时，删除全部value值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">   ZRANGE hackers 2 4</t>
-  </si>
-  <si>
-    <t>获得集合的元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引0开始，包含结束的索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zrange hackers 0 0   -&gt;取第一个元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> sorted set is similar to a regular set, but now each value has an associated score. This score is used to sort the elements in the set.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仍然是个set，不能有重复的内容，如果重复则更新索引，但是索引相同则并列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> HSET user name "John Smith"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存用户的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> HMSET user name "Mary Jones" password "hidden" email "mjones@example.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时保存多个属性，多了个M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得单个属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hget user name</t>
-  </si>
-  <si>
-    <t>获得所有的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hgetall user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回是属性，值  一系列的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hkeys user</t>
-  </si>
-  <si>
-    <t>获得所有的key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hvals user</t>
-  </si>
-  <si>
-    <t>获得所有的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对数值类型的属性的增删操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子操作，同步的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回增加后的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删掉属性值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdel user visit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入一个元素，在指定的值前/后 插入，  如果有多个相同的元素，以第一个元素作为标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改单个元素： lset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入： linsert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置某个索引对应的值，返回OK，索引不对返回Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，索引接受负值，-1表示倒数第一个，-2表示倒数第二个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除元素： lrem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从key对应list中删除count个和value相同的元素。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count&gt;0时，按从头到尾的顺序删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count&lt;0时，按从尾到头的顺序删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count=0时，删除全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltrim保留指定key 的值范围内的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受负值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用来防止list没有限制的增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果索引超出最大长度，默认为最大长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为状态码：OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpoplpush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回指定索引位置的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInventoryChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailStatusChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDailyRateChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.one房型房态 开，方量大于0---》DS存储房型的方量大于0---》dswitch接口返回 该房型方量变化 方量大于0</t>
-  </si>
-  <si>
-    <t>4.one房型房态 关，方量大于0----》ds存储 房型下所有价格计划状态 关， 方量 等于 0----》dswitch接口返回 房型下所有价格 关，方量=0</t>
-  </si>
-  <si>
-    <t>5.one房型房态 关，方量0----》ds存储 房型下所有价格状态 关，方量0---》dswitch接口返回 该房型所有价格关，方量0</t>
-  </si>
-  <si>
-    <t>2.one房型房态 开， 方量0 ----&gt;Dstorage 存储  房型下所有rateplan方量0----》dswitch接口返回所有的ratePlan对应 方量变化为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dswitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房型房态 开;方量0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_rate1 方量0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_rate2 方量0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_rate3 方量0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDailyRateChange=false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailStatusChange=false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInventoryChange=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方量0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expedia官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hashes  Map&amp;对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合操作set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合有序的set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表操作list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis提供五种数据类型：string，hash，list，set及zset(sorted set)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scard 返回set的元素个数，如果set不存在，返回0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srandmember key  从set中返回一个随机member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有许多取交集并集的操作，以及保存到新集合的操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,13 +594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -628,13 +641,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -675,13 +688,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -722,13 +735,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -769,13 +782,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -816,13 +829,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -863,13 +876,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -910,13 +923,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1008,8 +1021,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1290,8 +1303,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -1805,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:S123"/>
+  <dimension ref="A2:S125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1820,7 +1833,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1876,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1922,303 +1935,318 @@
     </row>
     <row r="27" spans="1:5">
       <c r="E27" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.5">
       <c r="A30" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
         <v>29</v>
-      </c>
-      <c r="I37" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="H38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="J42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="S45" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="S49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="S53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="J58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="M61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="H64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="H66" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="M67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="H68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="H70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.5">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="17.5">
-      <c r="A88" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17.5">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17.5">
+      <c r="A90" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17.5">
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>49</v>
-      </c>
-      <c r="E92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" t="s">
-        <v>56</v>
-      </c>
+      <c r="A92" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" t="s">
+        <v>50</v>
+      </c>
+      <c r="F96" t="s">
         <v>51</v>
       </c>
-      <c r="D94" t="s">
+      <c r="I96" t="s">
         <v>52</v>
       </c>
-      <c r="F94" t="s">
-        <v>53</v>
-      </c>
-      <c r="I94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="17.5">
-      <c r="A97" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
-      <c r="A99" t="s">
+    </row>
+    <row r="99" spans="1:10" ht="17.5">
+      <c r="A99" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>57</v>
       </c>
-      <c r="E99" t="s">
+      <c r="J103" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
-      <c r="A101" t="s">
+    <row r="105" spans="1:10">
+      <c r="D105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="D107" t="s">
         <v>59</v>
       </c>
-      <c r="J101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="D103" t="s">
+    </row>
+    <row r="111" spans="1:10">
+      <c r="D111" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
-      <c r="D105" t="s">
+    <row r="112" spans="1:10">
+      <c r="D112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
-      <c r="D109" t="s">
+    <row r="113" spans="4:18">
+      <c r="K113" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
-      <c r="D110" t="s">
+      <c r="P113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="4:18">
+      <c r="D114" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
-      <c r="K111" t="s">
-        <v>66</v>
-      </c>
-      <c r="P111" t="s">
+    <row r="115" spans="4:18">
+      <c r="K115" t="s">
+        <v>65</v>
+      </c>
+      <c r="P115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="4:18">
+      <c r="E123" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
-      <c r="D112" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="5:18">
-      <c r="K113" t="s">
-        <v>67</v>
-      </c>
-      <c r="P113" t="s">
+    <row r="124" spans="4:18">
+      <c r="L124" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="121" spans="5:18">
-      <c r="E121" t="s">
+      <c r="R124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="4:18">
+      <c r="L125" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="122" spans="5:18">
-      <c r="L122" t="s">
+      <c r="R125" t="s">
         <v>71</v>
-      </c>
-      <c r="R122" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="123" spans="5:18">
-      <c r="L123" t="s">
-        <v>72</v>
-      </c>
-      <c r="R123" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2241,27 +2269,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2283,17 +2311,17 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2315,90 +2343,90 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="C4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
         <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="D18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="4:7" s="4" customFormat="1"/>
